--- a/medicine/Enfance/Aimé_Giron/Aimé_Giron.xlsx
+++ b/medicine/Enfance/Aimé_Giron/Aimé_Giron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Giron</t>
+          <t>Aimé_Giron</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Antoine Aimé Giron, né au Puy (Haute-Loire) le 1er juillet 1836 et mort le 28 novembre 1907 à Bois-Colombes  (Hauts-de-Seine) est un écrivain et un avocat français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Giron</t>
+          <t>Aimé_Giron</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aimé Giron a commencé sa carrière littéraire en publiant des poésies qui parurent dans La Revue de Paris, tout en continuant sa carrière d’avocat dans sa ville natale, où il est secrétaire de la Société Académique du Puy-en-Velay et de la Haute-Loire. En 1863, il publie Le Sabot de Noël (avec des illustrations de Léopold Flameng) qui rencontra un vif succès et fut traduit en plusieurs langues.
 Il publie ensuite le recueil de poésies Les Amours étranges, et Trois jeunes filles, en 1864, et Mystérieuses nouvelles en 1866.
 Lors de la Guerre de 1870 il abandonne son métier d’avocat pour défendre le territoire envahi. Il s'installe à Bois-Colombes et devient collaborateur au Figaro, au Gaulois et à La France illustrée.
 Il publie, en 1873, un recueil de poésies, Les Cordes de Fer.
 Il fut un des écrivains les plus prolifiques de son époque, trouvant son inspiration dans l’histoire et les légendes du Velay et de la Haute-Loire.
-Il fut distingué à de nombreuses reprises et notamment par l’académie des jeux floraux et l’académie française. Il est décoré en juillet 1899 par la reine régente Espagnole de l'ordre de Charles III au nom du roi Alphonse XIII, en récompense pour les articles pro-espagnols qu'il a publié pendant la Guerre hispano-américaine en 1898[1].
+Il fut distingué à de nombreuses reprises et notamment par l’académie des jeux floraux et l’académie française. Il est décoré en juillet 1899 par la reine régente Espagnole de l'ordre de Charles III au nom du roi Alphonse XIII, en récompense pour les articles pro-espagnols qu'il a publié pendant la Guerre hispano-américaine en 1898.
 Aimé Giron est le frère du peintre Léon Giron et le père de l'égyptologue Noël Giron (Noël Aimé-Giron).
 Une rue du Puy-en-Velay porte son nom.
 </t>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aim%C3%A9_Giron</t>
+          <t>Aimé_Giron</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Sabot de Noël, compositions et gravures par Léopold Flameng, avec une préface par M. Jules Janin, Paris, E. Ducrocq, 1863 - légende [lire en ligne]
 Les Amours étranges, Paris, Michel-Lévy frères, 1864 - poésies
